--- a/ocms/src/test/resources/DownloadedFiles/Dashboard Color Code Config (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Dashboard Color Code Config (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t xml:space="preserve">Dashboard Name</t>
   </si>
@@ -67,25 +67,82 @@
     <t xml:space="preserve">04/11/2019 14:51:12</t>
   </si>
   <si>
+    <t xml:space="preserve">TmacWallboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLA%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3c6130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2019 14:50:57</t>
+  </si>
+  <si>
     <t xml:space="preserve">ChatRealTimeDashboard</t>
   </si>
   <si>
     <t xml:space="preserve">Agents Available</t>
   </si>
   <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#e57d7d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/11/2019 10:46:35</t>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ac2121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#b95050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/11/2019 14:09:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#778d57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/11/2019 10:06:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactions in Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3374c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2019 14:31:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VoiceRealTimeDashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2019 18:17:38</t>
   </si>
 </sst>
 </file>
@@ -153,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -162,7 +219,7 @@
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="22.714285714285715" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="16.714285714285715" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="21.714285714285715" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="11.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="9.714285714285714" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="16.714285714285715" bestFit="1"/>
@@ -249,6 +306,110 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/DownloadedFiles/Dashboard Color Code Config (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Dashboard Color Code Config (1).xlsx
@@ -61,10 +61,10 @@
     <t xml:space="preserve">#b95050</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/07/2021 14:49:32</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 08:13:28</t>
   </si>
   <si>
     <t xml:space="preserve">TmacWallboard</t>
